--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_5Seat_Kind.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_5Seat_Kind.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\附薦\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BF8FBB-9090-4FAE-B43F-89026E1EE4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ED3816-7731-4265-9FD6-73F1D5377B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="1485" windowWidth="16560" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="祖先 (2)" sheetId="49" r:id="rId1"/>
@@ -382,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,9 +437,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
@@ -470,6 +467,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
@@ -482,25 +483,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -841,25 +844,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y2"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="23" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="22" customWidth="1"/>
     <col min="2" max="4" width="5.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.75" style="25" customWidth="1"/>
+    <col min="5" max="5" width="4.75" style="24" customWidth="1"/>
     <col min="6" max="6" width="4.75" style="17" customWidth="1"/>
     <col min="7" max="9" width="5.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.75" style="15" customWidth="1"/>
-    <col min="11" max="11" width="4.75" style="23" customWidth="1"/>
+    <col min="11" max="11" width="4.75" style="22" customWidth="1"/>
     <col min="12" max="14" width="5.75" style="1" customWidth="1"/>
     <col min="15" max="15" width="4.75" style="15" customWidth="1"/>
-    <col min="16" max="16" width="4.75" style="21" customWidth="1"/>
+    <col min="16" max="16" width="4.75" style="20" customWidth="1"/>
     <col min="17" max="19" width="5.75" style="1" customWidth="1"/>
     <col min="20" max="20" width="4.75" style="15" customWidth="1"/>
-    <col min="21" max="21" width="4.75" style="21" customWidth="1"/>
+    <col min="21" max="21" width="4.75" style="20" customWidth="1"/>
     <col min="22" max="24" width="5.75" style="1" customWidth="1"/>
     <col min="25" max="25" width="4.75" style="15" customWidth="1"/>
     <col min="26" max="26" width="6.75" style="3" hidden="1" customWidth="1"/>
@@ -869,49 +872,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
+      <c r="A1" s="21"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="32" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="9"/>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="22"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="9"/>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="11"/>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="12"/>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="20"/>
+      <c r="U1" s="19"/>
       <c r="V1" s="11"/>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="X1" s="12"/>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="32" t="s">
         <v>22</v>
       </c>
       <c r="Z1" s="2"/>
@@ -922,72 +925,72 @@
       <c r="AC1" s="9"/>
     </row>
     <row r="2" spans="1:29" ht="304.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="37" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="37" t="s">
+      <c r="T2" s="33"/>
+      <c r="U2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="V2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="X2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="29" t="s">
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="AA2" s="7"/>
@@ -995,42 +998,42 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="39"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="38"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="39"/>
+      <c r="P3" s="29"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="14"/>
-      <c r="U3" s="39"/>
+      <c r="U3" s="29"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="14"/>
-      <c r="Z3" s="30"/>
+      <c r="Z3" s="31"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="6" t="s">
         <v>1</v>
@@ -1039,6 +1042,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="E1:E2"/>
@@ -1046,10 +1053,6 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_5Seat_Kind.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_5Seat_Kind.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ED3816-7731-4265-9FD6-73F1D5377B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B17C0F-9CAA-4098-A49D-9E4B6A42438E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <r>
       <t>陽上：</t>
@@ -58,50 +58,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{ADece2}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{ADece1}}</t>
   </si>
   <si>
-    <t>{{ADece3}}</t>
-  </si>
-  <si>
     <t>{{BDece1}}</t>
   </si>
   <si>
-    <t>{{BDece2}}</t>
-  </si>
-  <si>
-    <t>{{BDece3}}</t>
-  </si>
-  <si>
     <t>{{CDece1}}</t>
   </si>
   <si>
-    <t>{{CDece2}}</t>
-  </si>
-  <si>
-    <t>{{CDece3}}</t>
-  </si>
-  <si>
     <t>{{DDece1}}</t>
   </si>
   <si>
-    <t>{{DDece2}}</t>
-  </si>
-  <si>
-    <t>{{DDece3}}</t>
-  </si>
-  <si>
     <t>{{EDece1}}</t>
-  </si>
-  <si>
-    <t>{{EDece2}}</t>
-  </si>
-  <si>
-    <t>{{EDece3}}</t>
   </si>
   <si>
     <t>{{ASerial}}</t>
@@ -382,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,9 +437,18 @@
       <alignment horizontal="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
@@ -483,26 +461,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,7 +808,7 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="V2" sqref="V2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
@@ -878,8 +841,8 @@
         <v>2</v>
       </c>
       <c r="D1" s="9"/>
-      <c r="E1" s="32" t="s">
-        <v>18</v>
+      <c r="E1" s="35" t="s">
+        <v>8</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="13"/>
@@ -887,8 +850,8 @@
         <v>2</v>
       </c>
       <c r="I1" s="9"/>
-      <c r="J1" s="32" t="s">
-        <v>19</v>
+      <c r="J1" s="35" t="s">
+        <v>9</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="8"/>
@@ -896,8 +859,8 @@
         <v>2</v>
       </c>
       <c r="N1" s="9"/>
-      <c r="O1" s="32" t="s">
-        <v>20</v>
+      <c r="O1" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="P1" s="19"/>
       <c r="Q1" s="11"/>
@@ -905,8 +868,8 @@
         <v>2</v>
       </c>
       <c r="S1" s="12"/>
-      <c r="T1" s="32" t="s">
-        <v>21</v>
+      <c r="T1" s="35" t="s">
+        <v>11</v>
       </c>
       <c r="U1" s="19"/>
       <c r="V1" s="11"/>
@@ -914,8 +877,8 @@
         <v>2</v>
       </c>
       <c r="X1" s="12"/>
-      <c r="Y1" s="32" t="s">
-        <v>22</v>
+      <c r="Y1" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="10" t="s">
@@ -925,72 +888,52 @@
       <c r="AC1" s="9"/>
     </row>
     <row r="2" spans="1:29" ht="304.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="36" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="30" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="AA2" s="7"/>
@@ -998,42 +941,42 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="5"/>
       <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="29"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="5"/>
       <c r="H3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="35"/>
+      <c r="K3" s="32"/>
       <c r="L3" s="5"/>
       <c r="M3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="29"/>
+      <c r="P3" s="31"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="14"/>
-      <c r="U3" s="29"/>
+      <c r="U3" s="31"/>
       <c r="V3" s="5"/>
       <c r="W3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="14"/>
-      <c r="Z3" s="31"/>
+      <c r="Z3" s="34"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="6" t="s">
         <v>1</v>
@@ -1041,18 +984,23 @@
       <c r="AC3" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="U2:U3"/>
+  <mergeCells count="16">
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_5Seat_Kind.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_5Seat_Kind.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B17C0F-9CAA-4098-A49D-9E4B6A42438E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF8DAC5-CDBC-4C75-93FF-672477E04A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="祖先 (2)" sheetId="49" r:id="rId1"/>
+    <sheet name="Sheet0" sheetId="49" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <r>
       <t>陽上：</t>
@@ -94,22 +94,25 @@
   </si>
   <si>
     <t>{{ABene1}}</t>
+  </si>
+  <si>
+    <t>{{BBene1}}</t>
+  </si>
+  <si>
+    <t>{{CBene1}}</t>
+  </si>
+  <si>
+    <t>{{DBene1}}</t>
+  </si>
+  <si>
+    <t>{{EBene1}}</t>
+  </si>
+  <si>
+    <t>拜荐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{BBene1}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{CBene1}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{DBene1}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{EBene1}}</t>
+    <t>陽上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,7 +215,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="22"/>
       <color theme="1"/>
       <name val="標楷體"/>
@@ -220,33 +249,11 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
       <sz val="26"/>
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -351,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,9 +413,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -421,33 +425,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
@@ -455,17 +470,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,27 +820,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AT13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:X2"/>
+      <selection activeCell="V3" sqref="V3:X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="22" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="21" customWidth="1"/>
     <col min="2" max="4" width="5.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.75" style="24" customWidth="1"/>
+    <col min="5" max="5" width="4.75" style="23" customWidth="1"/>
     <col min="6" max="6" width="4.75" style="17" customWidth="1"/>
     <col min="7" max="9" width="5.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.75" style="15" customWidth="1"/>
-    <col min="11" max="11" width="4.75" style="22" customWidth="1"/>
+    <col min="11" max="11" width="4.75" style="21" customWidth="1"/>
     <col min="12" max="14" width="5.75" style="1" customWidth="1"/>
     <col min="15" max="15" width="4.75" style="15" customWidth="1"/>
-    <col min="16" max="16" width="4.75" style="20" customWidth="1"/>
+    <col min="16" max="16" width="4.75" style="19" customWidth="1"/>
     <col min="17" max="19" width="5.75" style="1" customWidth="1"/>
     <col min="20" max="20" width="4.75" style="15" customWidth="1"/>
-    <col min="21" max="21" width="4.75" style="20" customWidth="1"/>
+    <col min="21" max="21" width="4.75" style="19" customWidth="1"/>
     <col min="22" max="24" width="5.75" style="1" customWidth="1"/>
     <col min="25" max="25" width="4.75" style="15" customWidth="1"/>
     <col min="26" max="26" width="6.75" style="3" hidden="1" customWidth="1"/>
@@ -834,50 +849,50 @@
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
+    <row r="1" spans="1:46" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9"/>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="31" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="9"/>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="9"/>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="19"/>
+      <c r="P1" s="18"/>
       <c r="Q1" s="11"/>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="12"/>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="19"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="11"/>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="X1" s="12"/>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="31" t="s">
         <v>12</v>
       </c>
       <c r="Z1" s="2"/>
@@ -886,121 +901,664 @@
       </c>
       <c r="AB1" s="8"/>
       <c r="AC1" s="9"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1"/>
     </row>
-    <row r="2" spans="1:29" ht="304.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="33" t="s">
+    <row r="2" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
     </row>
-    <row r="3" spans="1:29" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+    </row>
+    <row r="4" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+    </row>
+    <row r="5" spans="1:46" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+    </row>
+    <row r="6" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+    </row>
+    <row r="7" spans="1:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+    </row>
+    <row r="8" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+    </row>
+    <row r="9" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+    </row>
+    <row r="10" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+    </row>
+    <row r="11" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+    </row>
+    <row r="12" spans="1:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+    </row>
+    <row r="13" spans="1:46" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="18" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="18" t="s">
+      <c r="I13" s="5"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="18" t="s">
+      <c r="N13" s="5"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="18" t="s">
+      <c r="S13" s="5"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="6" t="s">
+      <c r="X13" s="5"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="21">
+    <mergeCell ref="Z2:Z13"/>
+    <mergeCell ref="G3:I12"/>
+    <mergeCell ref="L3:N12"/>
+    <mergeCell ref="Q3:S12"/>
+    <mergeCell ref="V3:X12"/>
+    <mergeCell ref="J1:J5"/>
+    <mergeCell ref="O1:O5"/>
+    <mergeCell ref="T1:T5"/>
+    <mergeCell ref="Y1:Y5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="U8:U12"/>
+    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="B3:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/BMSHPMS/wwwroot/ExcelTemplate/Memorial_5Seat_Kind.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Memorial_5Seat_Kind.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF8DAC5-CDBC-4C75-93FF-672477E04A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DAE109-EFC3-455C-99A5-DAE0860496BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,6 +452,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
@@ -460,27 +481,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,7 +823,7 @@
   <dimension ref="A1:AT13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:X12"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
@@ -852,47 +852,47 @@
     <row r="1" spans="1:46" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="38" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="9"/>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="20"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="9"/>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="38" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="18"/>
       <c r="Q1" s="11"/>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="12"/>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="38" t="s">
         <v>11</v>
       </c>
       <c r="U1" s="18"/>
       <c r="V1" s="11"/>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="X1" s="12"/>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="38" t="s">
         <v>12</v>
       </c>
       <c r="Z1" s="2"/>
@@ -923,28 +923,28 @@
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
-      <c r="E2" s="32"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="25"/>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
-      <c r="J2" s="32"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="25"/>
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
-      <c r="O2" s="32"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="27"/>
       <c r="R2" s="27"/>
       <c r="S2" s="27"/>
-      <c r="T2" s="32"/>
+      <c r="T2" s="39"/>
       <c r="U2" s="25"/>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
       <c r="X2" s="26"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="35" t="s">
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA2" s="7"/>
@@ -967,43 +967,43 @@
       <c r="AS2"/>
       <c r="AT2"/>
     </row>
-    <row r="3" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="32"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="25"/>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="32"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="25"/>
       <c r="Q3" s="37" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="37"/>
       <c r="S3" s="37"/>
-      <c r="T3" s="32"/>
+      <c r="T3" s="39"/>
       <c r="U3" s="25"/>
-      <c r="V3" s="34" t="s">
+      <c r="V3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="35"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="34"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -1024,33 +1024,33 @@
       <c r="AS3"/>
       <c r="AT3"/>
     </row>
-    <row r="4" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="32"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="32"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="39"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="37"/>
       <c r="S4" s="37"/>
-      <c r="T4" s="32"/>
+      <c r="T4" s="39"/>
       <c r="U4" s="25"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="35"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="34"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -1073,31 +1073,31 @@
     </row>
     <row r="5" spans="1:46" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="32"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="25"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="32"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="39"/>
       <c r="P5" s="25"/>
       <c r="Q5" s="37"/>
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
-      <c r="T5" s="32"/>
+      <c r="T5" s="39"/>
       <c r="U5" s="25"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="35"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="34"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -1119,42 +1119,42 @@
       <c r="AT5"/>
     </row>
     <row r="6" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="24"/>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
       <c r="O6" s="24"/>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="40" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="37"/>
       <c r="R6" s="37"/>
       <c r="S6" s="37"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="33" t="s">
+      <c r="U6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
       <c r="Y6" s="24"/>
-      <c r="Z6" s="35"/>
+      <c r="Z6" s="34"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -1176,32 +1176,32 @@
       <c r="AT6"/>
     </row>
     <row r="7" spans="1:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
       <c r="O7" s="24"/>
-      <c r="P7" s="33"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="37"/>
       <c r="S7" s="37"/>
       <c r="T7" s="24"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
       <c r="Y7" s="24"/>
-      <c r="Z7" s="35"/>
+      <c r="Z7" s="34"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -1223,42 +1223,42 @@
       <c r="AT7"/>
     </row>
     <row r="8" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
       <c r="O8" s="24"/>
-      <c r="P8" s="33" t="s">
+      <c r="P8" s="40" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
       <c r="S8" s="37"/>
       <c r="T8" s="24"/>
-      <c r="U8" s="33" t="s">
+      <c r="U8" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
       <c r="Y8" s="24"/>
-      <c r="Z8" s="35"/>
+      <c r="Z8" s="34"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -1280,32 +1280,32 @@
       <c r="AT8"/>
     </row>
     <row r="9" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="33"/>
+      <c r="P9" s="40"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
       <c r="Y9" s="24"/>
-      <c r="Z9" s="35"/>
+      <c r="Z9" s="34"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -1327,32 +1327,32 @@
       <c r="AT9"/>
     </row>
     <row r="10" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
       <c r="O10" s="24"/>
-      <c r="P10" s="33"/>
+      <c r="P10" s="40"/>
       <c r="Q10" s="37"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
       <c r="T10" s="24"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
       <c r="Y10" s="24"/>
-      <c r="Z10" s="35"/>
+      <c r="Z10" s="34"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -1374,32 +1374,32 @@
       <c r="AT10"/>
     </row>
     <row r="11" spans="1:46" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
       <c r="O11" s="24"/>
-      <c r="P11" s="33"/>
+      <c r="P11" s="40"/>
       <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="24"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
       <c r="Y11" s="24"/>
-      <c r="Z11" s="35"/>
+      <c r="Z11" s="34"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -1421,32 +1421,32 @@
       <c r="AT11"/>
     </row>
     <row r="12" spans="1:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
       <c r="O12" s="24"/>
-      <c r="P12" s="33"/>
+      <c r="P12" s="40"/>
       <c r="Q12" s="37"/>
       <c r="R12" s="37"/>
       <c r="S12" s="37"/>
       <c r="T12" s="24"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
       <c r="Y12" s="24"/>
-      <c r="Z12" s="35"/>
+      <c r="Z12" s="34"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -1472,7 +1472,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
@@ -1481,7 +1481,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="I13" s="5"/>
@@ -1490,7 +1490,7 @@
         <v>18</v>
       </c>
       <c r="L13" s="5"/>
-      <c r="M13" s="40" t="s">
+      <c r="M13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="N13" s="5"/>
@@ -1499,7 +1499,7 @@
         <v>18</v>
       </c>
       <c r="Q13" s="30"/>
-      <c r="R13" s="40" t="s">
+      <c r="R13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="S13" s="5"/>
@@ -1508,12 +1508,12 @@
         <v>18</v>
       </c>
       <c r="V13" s="5"/>
-      <c r="W13" s="40" t="s">
+      <c r="W13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="X13" s="5"/>
       <c r="Y13" s="14"/>
-      <c r="Z13" s="36"/>
+      <c r="Z13" s="35"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="6" t="s">
         <v>1</v>
@@ -1538,6 +1538,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="B3:D12"/>
     <mergeCell ref="Z2:Z13"/>
     <mergeCell ref="G3:I12"/>
     <mergeCell ref="L3:N12"/>
@@ -1551,14 +1559,6 @@
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="P8:P12"/>
     <mergeCell ref="U8:U12"/>
-    <mergeCell ref="E1:E5"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="B3:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
